--- a/exports/eth-usd_predictions_last90.xlsx
+++ b/exports/eth-usd_predictions_last90.xlsx
@@ -458,1441 +458,1441 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-08-14</t>
+          <t>2025-08-16</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4548.17</v>
+        <v>4426.18</v>
       </c>
       <c r="C2" t="n">
-        <v>4645.9</v>
+        <v>4458.06</v>
       </c>
       <c r="D2" t="n">
-        <v>97.73999999999999</v>
+        <v>31.88</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-08-15</t>
+          <t>2025-08-17</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4439.99</v>
+        <v>4473.27</v>
       </c>
       <c r="C3" t="n">
-        <v>4483.4</v>
+        <v>4461.76</v>
       </c>
       <c r="D3" t="n">
-        <v>43.41</v>
+        <v>-11.51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-08-16</t>
+          <t>2025-08-18</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4426.18</v>
+        <v>4312.5</v>
       </c>
       <c r="C4" t="n">
-        <v>4459.45</v>
+        <v>4355.23</v>
       </c>
       <c r="D4" t="n">
-        <v>33.27</v>
+        <v>42.73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-08-17</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4473.27</v>
+        <v>4073.46</v>
       </c>
       <c r="C5" t="n">
-        <v>4462.44</v>
+        <v>4185.38</v>
       </c>
       <c r="D5" t="n">
-        <v>-10.83</v>
+        <v>111.92</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-08-18</t>
+          <t>2025-08-20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4312.5</v>
+        <v>4334.5</v>
       </c>
       <c r="C6" t="n">
-        <v>4355.83</v>
+        <v>4225.51</v>
       </c>
       <c r="D6" t="n">
-        <v>43.33</v>
+        <v>-108.99</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-08-19</t>
+          <t>2025-08-21</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4073.46</v>
+        <v>4223.21</v>
       </c>
       <c r="C7" t="n">
-        <v>4185.62</v>
+        <v>4299.08</v>
       </c>
       <c r="D7" t="n">
-        <v>112.16</v>
+        <v>75.87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-08-20</t>
+          <t>2025-08-22</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4334.5</v>
+        <v>4831.35</v>
       </c>
       <c r="C8" t="n">
-        <v>4225.75</v>
+        <v>4475.36</v>
       </c>
       <c r="D8" t="n">
-        <v>-108.75</v>
+        <v>-355.99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-08-21</t>
+          <t>2025-08-23</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4223.21</v>
+        <v>4776.09</v>
       </c>
       <c r="C9" t="n">
-        <v>4298.78</v>
+        <v>4753.35</v>
       </c>
       <c r="D9" t="n">
-        <v>75.56999999999999</v>
+        <v>-22.74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-08-22</t>
+          <t>2025-08-24</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4831.35</v>
+        <v>4779.65</v>
       </c>
       <c r="C10" t="n">
-        <v>4474.41</v>
+        <v>4809.33</v>
       </c>
       <c r="D10" t="n">
-        <v>-356.94</v>
+        <v>29.68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-08-23</t>
+          <t>2025-08-25</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4776.09</v>
+        <v>4372.99</v>
       </c>
       <c r="C11" t="n">
-        <v>4752.61</v>
+        <v>4604.64</v>
       </c>
       <c r="D11" t="n">
-        <v>-23.48</v>
+        <v>231.65</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-08-24</t>
+          <t>2025-08-26</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4779.65</v>
+        <v>4600.43</v>
       </c>
       <c r="C12" t="n">
-        <v>4807.88</v>
+        <v>4509.8</v>
       </c>
       <c r="D12" t="n">
-        <v>28.23</v>
+        <v>-90.63</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-08-25</t>
+          <t>2025-08-27</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4372.99</v>
+        <v>4503.39</v>
       </c>
       <c r="C13" t="n">
-        <v>4606.01</v>
+        <v>4539.77</v>
       </c>
       <c r="D13" t="n">
-        <v>233.02</v>
+        <v>36.38</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>2025-08-28</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4600.43</v>
+        <v>4507.18</v>
       </c>
       <c r="C14" t="n">
-        <v>4511.62</v>
+        <v>4477.98</v>
       </c>
       <c r="D14" t="n">
-        <v>-88.81</v>
+        <v>-29.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-08-27</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4503.39</v>
+        <v>4360.15</v>
       </c>
       <c r="C15" t="n">
-        <v>4541.49</v>
+        <v>4412.93</v>
       </c>
       <c r="D15" t="n">
-        <v>38.1</v>
+        <v>52.77</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-08-28</t>
+          <t>2025-08-30</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4507.18</v>
+        <v>4374.15</v>
       </c>
       <c r="C16" t="n">
-        <v>4478.06</v>
+        <v>4412.39</v>
       </c>
       <c r="D16" t="n">
-        <v>-29.12</v>
+        <v>38.24</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-08-31</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4360.15</v>
+        <v>4390.02</v>
       </c>
       <c r="C17" t="n">
-        <v>4413.14</v>
+        <v>4424.42</v>
       </c>
       <c r="D17" t="n">
-        <v>52.98</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-08-30</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4374.15</v>
+        <v>4314.47</v>
       </c>
       <c r="C18" t="n">
-        <v>4411.85</v>
+        <v>4358.81</v>
       </c>
       <c r="D18" t="n">
-        <v>37.7</v>
+        <v>44.34</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-08-31</t>
+          <t>2025-09-02</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4390.02</v>
+        <v>4325.37</v>
       </c>
       <c r="C19" t="n">
-        <v>4423.95</v>
+        <v>4335.44</v>
       </c>
       <c r="D19" t="n">
-        <v>33.93</v>
+        <v>10.08</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4314.47</v>
+        <v>4450.39</v>
       </c>
       <c r="C20" t="n">
-        <v>4358.28</v>
+        <v>4401.1</v>
       </c>
       <c r="D20" t="n">
-        <v>43.81</v>
+        <v>-49.29</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-04</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4325.37</v>
+        <v>4298.74</v>
       </c>
       <c r="C21" t="n">
-        <v>4334.8</v>
+        <v>4404.76</v>
       </c>
       <c r="D21" t="n">
-        <v>9.43</v>
+        <v>106.02</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4450.39</v>
+        <v>4306.99</v>
       </c>
       <c r="C22" t="n">
-        <v>4400.66</v>
+        <v>4314.9</v>
       </c>
       <c r="D22" t="n">
-        <v>-49.73</v>
+        <v>7.91</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-09-04</t>
+          <t>2025-09-06</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4298.74</v>
+        <v>4274.24</v>
       </c>
       <c r="C23" t="n">
-        <v>4404.05</v>
+        <v>4302.81</v>
       </c>
       <c r="D23" t="n">
-        <v>105.31</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-07</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4306.99</v>
+        <v>4305.35</v>
       </c>
       <c r="C24" t="n">
-        <v>4314.61</v>
+        <v>4313.27</v>
       </c>
       <c r="D24" t="n">
-        <v>7.62</v>
+        <v>7.92</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-09-06</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4274.24</v>
+        <v>4308.07</v>
       </c>
       <c r="C25" t="n">
-        <v>4303.18</v>
+        <v>4289.79</v>
       </c>
       <c r="D25" t="n">
-        <v>28.94</v>
+        <v>-18.28</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-09-07</t>
+          <t>2025-09-09</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4305.35</v>
+        <v>4309.04</v>
       </c>
       <c r="C26" t="n">
-        <v>4313.23</v>
+        <v>4295.65</v>
       </c>
       <c r="D26" t="n">
-        <v>7.88</v>
+        <v>-13.39</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4308.07</v>
+        <v>4349.15</v>
       </c>
       <c r="C27" t="n">
-        <v>4290.26</v>
+        <v>4328.3</v>
       </c>
       <c r="D27" t="n">
-        <v>-17.81</v>
+        <v>-20.84</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4309.04</v>
+        <v>4461.23</v>
       </c>
       <c r="C28" t="n">
-        <v>4295.89</v>
+        <v>4392.85</v>
       </c>
       <c r="D28" t="n">
-        <v>-13.15</v>
+        <v>-68.39</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4349.15</v>
+        <v>4715.25</v>
       </c>
       <c r="C29" t="n">
-        <v>4328.44</v>
+        <v>4539.44</v>
       </c>
       <c r="D29" t="n">
-        <v>-20.71</v>
+        <v>-175.81</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-13</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4461.23</v>
+        <v>4668.18</v>
       </c>
       <c r="C30" t="n">
-        <v>4393.18</v>
+        <v>4653.55</v>
       </c>
       <c r="D30" t="n">
-        <v>-68.05</v>
+        <v>-14.63</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-14</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4715.25</v>
+        <v>4609.6</v>
       </c>
       <c r="C31" t="n">
-        <v>4539.86</v>
+        <v>4625.25</v>
       </c>
       <c r="D31" t="n">
-        <v>-175.39</v>
+        <v>15.65</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-09-13</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4668.18</v>
+        <v>4526.82</v>
       </c>
       <c r="C32" t="n">
-        <v>4653.65</v>
+        <v>4555.79</v>
       </c>
       <c r="D32" t="n">
-        <v>-14.53</v>
+        <v>28.97</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-09-14</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4609.6</v>
+        <v>4503.56</v>
       </c>
       <c r="C33" t="n">
-        <v>4625.57</v>
+        <v>4517.55</v>
       </c>
       <c r="D33" t="n">
-        <v>15.97</v>
+        <v>13.98</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4526.82</v>
+        <v>4592.73</v>
       </c>
       <c r="C34" t="n">
-        <v>4557.31</v>
+        <v>4509.28</v>
       </c>
       <c r="D34" t="n">
-        <v>30.49</v>
+        <v>-83.45</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4503.56</v>
+        <v>4589.92</v>
       </c>
       <c r="C35" t="n">
-        <v>4518.92</v>
+        <v>4556.78</v>
       </c>
       <c r="D35" t="n">
-        <v>15.35</v>
+        <v>-33.14</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4592.73</v>
+        <v>4470.92</v>
       </c>
       <c r="C36" t="n">
-        <v>4510.45</v>
+        <v>4538.53</v>
       </c>
       <c r="D36" t="n">
-        <v>-82.29000000000001</v>
+        <v>67.62</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-20</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4589.92</v>
+        <v>4482.27</v>
       </c>
       <c r="C37" t="n">
-        <v>4557.09</v>
+        <v>4481.92</v>
       </c>
       <c r="D37" t="n">
-        <v>-32.83</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-21</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4470.92</v>
+        <v>4451.33</v>
       </c>
       <c r="C38" t="n">
-        <v>4538.39</v>
+        <v>4478.73</v>
       </c>
       <c r="D38" t="n">
-        <v>67.48</v>
+        <v>27.4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-09-20</t>
+          <t>2025-09-22</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4482.27</v>
+        <v>4202.88</v>
       </c>
       <c r="C39" t="n">
-        <v>4482.14</v>
+        <v>4311.07</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.13</v>
+        <v>108.19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-09-21</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4451.33</v>
+        <v>4165.5</v>
       </c>
       <c r="C40" t="n">
-        <v>4479.72</v>
+        <v>4163.66</v>
       </c>
       <c r="D40" t="n">
-        <v>28.39</v>
+        <v>-1.84</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4202.88</v>
+        <v>4153.47</v>
       </c>
       <c r="C41" t="n">
-        <v>4312.45</v>
+        <v>4144.29</v>
       </c>
       <c r="D41" t="n">
-        <v>109.58</v>
+        <v>-9.18</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>4165.5</v>
+        <v>3868.33</v>
       </c>
       <c r="C42" t="n">
-        <v>4165.1</v>
+        <v>4014.63</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.4</v>
+        <v>146.29</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4153.47</v>
+        <v>4035.89</v>
       </c>
       <c r="C43" t="n">
-        <v>4145.55</v>
+        <v>3942.56</v>
       </c>
       <c r="D43" t="n">
-        <v>-7.92</v>
+        <v>-93.31999999999999</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3868.33</v>
+        <v>4018.66</v>
       </c>
       <c r="C44" t="n">
-        <v>4015.42</v>
+        <v>4023.57</v>
       </c>
       <c r="D44" t="n">
-        <v>147.09</v>
+        <v>4.91</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4035.89</v>
+        <v>4141.48</v>
       </c>
       <c r="C45" t="n">
-        <v>3943.43</v>
+        <v>4104.55</v>
       </c>
       <c r="D45" t="n">
-        <v>-92.45</v>
+        <v>-36.93</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4018.66</v>
+        <v>4217.34</v>
       </c>
       <c r="C46" t="n">
-        <v>4024.37</v>
+        <v>4146.69</v>
       </c>
       <c r="D46" t="n">
-        <v>5.72</v>
+        <v>-70.65000000000001</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>4141.48</v>
+        <v>4145.96</v>
       </c>
       <c r="C47" t="n">
-        <v>4104.21</v>
+        <v>4195.05</v>
       </c>
       <c r="D47" t="n">
-        <v>-37.26</v>
+        <v>49.1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>4217.34</v>
+        <v>4351.11</v>
       </c>
       <c r="C48" t="n">
-        <v>4147.24</v>
+        <v>4251.15</v>
       </c>
       <c r="D48" t="n">
-        <v>-70.09999999999999</v>
+        <v>-99.95999999999999</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-02</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>4145.96</v>
+        <v>4487.92</v>
       </c>
       <c r="C49" t="n">
-        <v>4195.46</v>
+        <v>4376.29</v>
       </c>
       <c r="D49" t="n">
-        <v>49.5</v>
+        <v>-111.63</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-10-03</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>4351.11</v>
+        <v>4514.87</v>
       </c>
       <c r="C50" t="n">
-        <v>4251.95</v>
+        <v>4475.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-99.16</v>
+        <v>-39.36</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-10-04</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>4487.92</v>
+        <v>4489.2</v>
       </c>
       <c r="C51" t="n">
-        <v>4377.33</v>
+        <v>4462.57</v>
       </c>
       <c r="D51" t="n">
-        <v>-110.59</v>
+        <v>-26.62</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-10-05</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>4514.87</v>
+        <v>4515.42</v>
       </c>
       <c r="C52" t="n">
-        <v>4475.97</v>
+        <v>4477.6</v>
       </c>
       <c r="D52" t="n">
-        <v>-38.9</v>
+        <v>-37.82</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-10-06</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>4489.2</v>
+        <v>4687.77</v>
       </c>
       <c r="C53" t="n">
-        <v>4463.48</v>
+        <v>4578.13</v>
       </c>
       <c r="D53" t="n">
-        <v>-25.72</v>
+        <v>-109.64</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-10-05</t>
+          <t>2025-10-07</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>4515.42</v>
+        <v>4451.15</v>
       </c>
       <c r="C54" t="n">
-        <v>4479.07</v>
+        <v>4550.16</v>
       </c>
       <c r="D54" t="n">
-        <v>-36.35</v>
+        <v>99.01000000000001</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>4687.77</v>
+        <v>4527.65</v>
       </c>
       <c r="C55" t="n">
-        <v>4579.18</v>
+        <v>4466.38</v>
       </c>
       <c r="D55" t="n">
-        <v>-108.59</v>
+        <v>-61.27</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-09</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>4451.15</v>
+        <v>4369.14</v>
       </c>
       <c r="C56" t="n">
-        <v>4551.21</v>
+        <v>4435.84</v>
       </c>
       <c r="D56" t="n">
-        <v>100.06</v>
+        <v>66.69</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-10</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>4527.65</v>
+        <v>3843.01</v>
       </c>
       <c r="C57" t="n">
-        <v>4467.31</v>
+        <v>4119</v>
       </c>
       <c r="D57" t="n">
-        <v>-60.34</v>
+        <v>275.99</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-10-09</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>4369.14</v>
+        <v>3750.61</v>
       </c>
       <c r="C58" t="n">
-        <v>4437.38</v>
+        <v>3767.61</v>
       </c>
       <c r="D58" t="n">
-        <v>68.23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-12</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>3843.01</v>
+        <v>4164.43</v>
       </c>
       <c r="C59" t="n">
-        <v>4120.25</v>
+        <v>3944.51</v>
       </c>
       <c r="D59" t="n">
-        <v>277.25</v>
+        <v>-219.91</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>3750.61</v>
+        <v>4245.47</v>
       </c>
       <c r="C60" t="n">
-        <v>3769.88</v>
+        <v>4196.91</v>
       </c>
       <c r="D60" t="n">
-        <v>19.27</v>
+        <v>-48.56</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-10-12</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>4164.43</v>
+        <v>4125.41</v>
       </c>
       <c r="C61" t="n">
-        <v>3946.58</v>
+        <v>4145.43</v>
       </c>
       <c r="D61" t="n">
-        <v>-217.85</v>
+        <v>20.02</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>4245.47</v>
+        <v>3987.46</v>
       </c>
       <c r="C62" t="n">
-        <v>4196.29</v>
+        <v>4068.14</v>
       </c>
       <c r="D62" t="n">
-        <v>-49.18</v>
+        <v>80.68000000000001</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>4125.41</v>
+        <v>3894.75</v>
       </c>
       <c r="C63" t="n">
-        <v>4144.65</v>
+        <v>4031.45</v>
       </c>
       <c r="D63" t="n">
-        <v>19.24</v>
+        <v>136.7</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>3987.46</v>
+        <v>3832.56</v>
       </c>
       <c r="C64" t="n">
-        <v>4068.78</v>
+        <v>3878.96</v>
       </c>
       <c r="D64" t="n">
-        <v>81.33</v>
+        <v>46.4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>3894.75</v>
+        <v>3890.35</v>
       </c>
       <c r="C65" t="n">
-        <v>4032.73</v>
+        <v>3812.08</v>
       </c>
       <c r="D65" t="n">
-        <v>137.97</v>
+        <v>-78.27</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>3832.56</v>
+        <v>3984.65</v>
       </c>
       <c r="C66" t="n">
-        <v>3880.83</v>
+        <v>3892.99</v>
       </c>
       <c r="D66" t="n">
-        <v>48.27</v>
+        <v>-91.66</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>3890.35</v>
+        <v>3980.76</v>
       </c>
       <c r="C67" t="n">
-        <v>3813.87</v>
+        <v>3973.06</v>
       </c>
       <c r="D67" t="n">
-        <v>-76.47</v>
+        <v>-7.7</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>3984.65</v>
+        <v>3876.76</v>
       </c>
       <c r="C68" t="n">
-        <v>3893.74</v>
+        <v>3927.03</v>
       </c>
       <c r="D68" t="n">
-        <v>-90.91</v>
+        <v>50.27</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>3980.76</v>
+        <v>3808.12</v>
       </c>
       <c r="C69" t="n">
-        <v>3973.02</v>
+        <v>3847.11</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.74</v>
+        <v>38.98</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>3876.76</v>
+        <v>3856.03</v>
       </c>
       <c r="C70" t="n">
-        <v>3927.32</v>
+        <v>3841.32</v>
       </c>
       <c r="D70" t="n">
-        <v>50.55</v>
+        <v>-14.71</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>3808.12</v>
+        <v>3934.57</v>
       </c>
       <c r="C71" t="n">
-        <v>3847.91</v>
+        <v>3881</v>
       </c>
       <c r="D71" t="n">
-        <v>39.78</v>
+        <v>-53.56</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>3856.03</v>
+        <v>3953.47</v>
       </c>
       <c r="C72" t="n">
-        <v>3842.28</v>
+        <v>3919.39</v>
       </c>
       <c r="D72" t="n">
-        <v>-13.75</v>
+        <v>-34.08</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>3934.57</v>
+        <v>4157.99</v>
       </c>
       <c r="C73" t="n">
-        <v>3881.69</v>
+        <v>4033.19</v>
       </c>
       <c r="D73" t="n">
-        <v>-52.88</v>
+        <v>-124.8</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>3953.47</v>
+        <v>4120.12</v>
       </c>
       <c r="C74" t="n">
-        <v>3919.45</v>
+        <v>4132.93</v>
       </c>
       <c r="D74" t="n">
-        <v>-34.02</v>
+        <v>12.81</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>4157.99</v>
+        <v>3982.26</v>
       </c>
       <c r="C75" t="n">
-        <v>4033.41</v>
+        <v>4064.76</v>
       </c>
       <c r="D75" t="n">
-        <v>-124.58</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>4120.12</v>
+        <v>3903.35</v>
       </c>
       <c r="C76" t="n">
-        <v>4133.09</v>
+        <v>3931.53</v>
       </c>
       <c r="D76" t="n">
-        <v>12.97</v>
+        <v>28.17</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>3982.26</v>
+        <v>3804.38</v>
       </c>
       <c r="C77" t="n">
-        <v>4065.15</v>
+        <v>3849.63</v>
       </c>
       <c r="D77" t="n">
-        <v>82.89</v>
+        <v>45.25</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>3903.35</v>
+        <v>3847.08</v>
       </c>
       <c r="C78" t="n">
-        <v>3933.12</v>
+        <v>3817.07</v>
       </c>
       <c r="D78" t="n">
-        <v>29.77</v>
+        <v>-30.01</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-11-01</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>3804.38</v>
+        <v>3874.19</v>
       </c>
       <c r="C79" t="n">
-        <v>3851.29</v>
+        <v>3824</v>
       </c>
       <c r="D79" t="n">
-        <v>46.91</v>
+        <v>-50.18</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-02</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>3847.08</v>
+        <v>3911.06</v>
       </c>
       <c r="C80" t="n">
-        <v>3818.29</v>
+        <v>3871.78</v>
       </c>
       <c r="D80" t="n">
-        <v>-28.79</v>
+        <v>-39.28</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025-11-01</t>
+          <t>2025-11-03</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>3874.19</v>
+        <v>3602.31</v>
       </c>
       <c r="C81" t="n">
-        <v>3824.96</v>
+        <v>3730.25</v>
       </c>
       <c r="D81" t="n">
-        <v>-49.22</v>
+        <v>127.95</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025-11-02</t>
+          <t>2025-11-04</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>3911.06</v>
+        <v>3292.57</v>
       </c>
       <c r="C82" t="n">
-        <v>3872.09</v>
+        <v>3419.17</v>
       </c>
       <c r="D82" t="n">
-        <v>-38.98</v>
+        <v>126.59</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2025-11-03</t>
+          <t>2025-11-05</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>3602.31</v>
+        <v>3425.17</v>
       </c>
       <c r="C83" t="n">
-        <v>3731.16</v>
+        <v>3367.56</v>
       </c>
       <c r="D83" t="n">
-        <v>128.85</v>
+        <v>-57.61</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025-11-04</t>
+          <t>2025-11-06</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>3292.57</v>
+        <v>3312.26</v>
       </c>
       <c r="C84" t="n">
-        <v>3420.78</v>
+        <v>3334.25</v>
       </c>
       <c r="D84" t="n">
-        <v>128.2</v>
+        <v>21.99</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2025-11-05</t>
+          <t>2025-11-07</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>3425.17</v>
+        <v>3435.3</v>
       </c>
       <c r="C85" t="n">
-        <v>3369.81</v>
+        <v>3348.91</v>
       </c>
       <c r="D85" t="n">
-        <v>-55.37</v>
+        <v>-86.39</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2025-11-06</t>
+          <t>2025-11-08</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>3312.26</v>
+        <v>3400.38</v>
       </c>
       <c r="C86" t="n">
-        <v>3335.64</v>
+        <v>3371.3</v>
       </c>
       <c r="D86" t="n">
-        <v>23.39</v>
+        <v>-29.07</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2025-11-07</t>
+          <t>2025-11-09</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>3435.3</v>
+        <v>3582.62</v>
       </c>
       <c r="C87" t="n">
-        <v>3349.32</v>
+        <v>3540.1</v>
       </c>
       <c r="D87" t="n">
-        <v>-85.98</v>
+        <v>-42.52</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025-11-08</t>
+          <t>2025-11-10</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>3400.38</v>
+        <v>3568.46</v>
       </c>
       <c r="C88" t="n">
-        <v>3371.92</v>
+        <v>3593.09</v>
       </c>
       <c r="D88" t="n">
-        <v>-28.46</v>
+        <v>24.63</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025-11-09</t>
+          <t>2025-11-11</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>3582.62</v>
+        <v>3415.28</v>
       </c>
       <c r="C89" t="n">
-        <v>3539.85</v>
+        <v>3494.15</v>
       </c>
       <c r="D89" t="n">
-        <v>-42.78</v>
+        <v>78.87</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025-11-10</t>
+          <t>2025-11-12</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>3568.46</v>
+        <v>3413.09</v>
       </c>
       <c r="C90" t="n">
-        <v>3593.32</v>
+        <v>3408.14</v>
       </c>
       <c r="D90" t="n">
-        <v>24.86</v>
+        <v>-4.95</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2025-11-11</t>
+          <t>2025-11-13</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>3415.28</v>
+        <v>3232.76</v>
       </c>
       <c r="C91" t="n">
-        <v>3495.09</v>
+        <v>3296.46</v>
       </c>
       <c r="D91" t="n">
-        <v>79.81</v>
+        <v>63.7</v>
       </c>
     </row>
   </sheetData>
